--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374683F-7A6B-4C05-8B73-2E9719D3D63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD67B9E-810C-44C8-8874-0538C031B595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="684" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
   <sheets>
     <sheet name="연회비" sheetId="1" r:id="rId1"/>
@@ -4859,7 +4859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998C31C8-AED9-4721-BDE7-F9EFB10C0123}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>

--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신민경\Desktop\Classom\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31694410-6FF7-435A-B498-1173F662D115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4AEA66-C5A7-454A-9E1F-32803214928F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
+    <workbookView xWindow="13080" yWindow="2532" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
   <sheets>
     <sheet name="연회비" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="휴대폰요금" sheetId="5" r:id="rId5"/>
     <sheet name="외식_카페" sheetId="9" r:id="rId6"/>
     <sheet name="대중교통" sheetId="8" r:id="rId7"/>
+    <sheet name="링크" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="65">
   <si>
     <t>카드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +248,42 @@
   </si>
   <si>
     <t>연회비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/149</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/485</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +296,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +328,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,12 +355,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +391,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -686,21 +739,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63928CCD-DF40-4A6B-8401-6D70BD420491}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.08203125" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -716,7 +769,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,7 +777,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,7 +785,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -740,7 +793,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -748,7 +801,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -756,7 +809,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -764,7 +817,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -772,7 +825,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -780,7 +833,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -788,7 +841,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -796,7 +849,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -804,7 +857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -812,7 +865,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -820,7 +873,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -828,7 +881,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -836,7 +889,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -844,7 +897,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -852,7 +905,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -860,7 +913,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -868,7 +921,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -876,7 +929,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -884,7 +937,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -892,7 +945,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -900,7 +953,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -908,7 +961,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -916,7 +969,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -924,7 +977,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -932,7 +985,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -940,7 +993,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -948,7 +1001,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -956,7 +1009,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -964,7 +1017,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -972,7 +1025,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -980,7 +1033,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -988,7 +1041,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -996,7 +1049,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1057,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -1012,7 +1065,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1020,7 +1073,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -1043,20 +1096,20 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.9140625" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" customWidth="1"/>
-    <col min="3" max="3" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="13.08203125" customWidth="1"/>
-    <col min="11" max="11" width="10.08203125" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1131,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1142,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1153,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1219,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1241,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1252,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1274,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1232,7 +1285,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1296,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1287,7 +1340,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1351,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1309,7 +1362,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1320,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1342,7 +1395,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1417,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1375,7 +1428,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1386,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1397,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -1419,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1430,7 +1483,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
@@ -1452,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -1463,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -1474,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -1485,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1496,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -1507,10 +1560,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C43" s="8"/>
     </row>
   </sheetData>
@@ -1528,22 +1581,22 @@
       <selection activeCell="A45" sqref="A45:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="4" max="4" width="11.4140625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="13.9140625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1618,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1640,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1651,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1609,7 +1662,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1620,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1695,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1706,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1717,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1675,7 +1728,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1750,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1708,7 +1761,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1730,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1752,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1785,7 +1838,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1849,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1807,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1818,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1829,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1893,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1851,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1862,7 +1915,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1873,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1884,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +1948,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1917,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1928,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1939,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1961,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -1994,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -2005,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -2016,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -2027,7 +2080,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -2049,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B48" s="4"/>
     </row>
   </sheetData>
@@ -2077,18 +2130,18 @@
       <selection activeCell="A7" sqref="A7:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.9140625" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="4" max="5" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2163,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2121,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2185,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2143,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2207,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2165,7 +2218,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2229,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2240,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2231,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2242,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2253,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2275,7 +2328,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2286,7 +2339,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2297,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2308,7 +2361,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2319,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2330,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2352,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2363,7 +2416,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2427,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2385,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2396,7 +2449,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -2407,7 +2460,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2418,7 +2471,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -2429,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2440,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2451,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -2462,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2473,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>44</v>
       </c>
@@ -2484,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2495,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -2506,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
@@ -2517,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -2528,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2539,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2550,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2561,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2586,16 +2639,16 @@
       <selection activeCell="A46" sqref="A46:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.9140625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.296875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2682,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2663,7 +2716,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2680,7 +2733,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +2750,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2767,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2731,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2748,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2818,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2782,7 +2835,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +2852,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2816,7 +2869,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2850,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2867,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2884,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2901,7 +2954,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2918,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2935,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2952,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2969,7 +3022,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +3039,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3003,7 +3056,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -3020,7 +3073,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3037,7 +3090,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -3054,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -3071,7 +3124,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -3088,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -3105,7 +3158,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -3122,7 +3175,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -3139,7 +3192,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -3156,7 +3209,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -3173,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -3190,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -3207,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>44</v>
       </c>
@@ -3224,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
@@ -3241,7 +3294,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -3258,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3275,7 +3328,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3292,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -3309,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -3326,7 +3379,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -3343,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -3374,12 +3427,12 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3419,7 +3472,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3439,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3459,7 +3512,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3479,7 +3532,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -3499,7 +3552,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -3519,7 +3572,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3539,7 +3592,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3559,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3579,7 +3632,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -3599,7 +3652,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3672,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3639,7 +3692,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3659,7 +3712,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -3679,7 +3732,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +3752,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -3719,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -3759,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -3779,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3799,7 +3852,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -3819,7 +3872,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -3839,7 +3892,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3859,7 +3912,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3879,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3899,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3919,7 +3972,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3939,7 +3992,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -3959,7 +4012,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -3979,7 +4032,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -3999,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -4019,7 +4072,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -4039,7 +4092,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -4059,7 +4112,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -4079,7 +4132,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -4099,7 +4152,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -4119,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -4139,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -4159,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
@@ -4179,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -4199,7 +4252,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -4219,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -4239,7 +4292,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -4259,7 +4312,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -4279,7 +4332,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -4299,7 +4352,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -4319,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -4339,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4354,23 +4407,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998C31C8-AED9-4721-BDE7-F9EFB10C0123}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.9140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.296875" customWidth="1"/>
+    <col min="7" max="8" width="10.3984375" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4381,7 +4434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4392,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4403,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4414,7 +4467,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4425,7 +4478,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -4436,7 +4489,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4447,7 +4500,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4458,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4469,7 +4522,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4480,7 +4533,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4491,7 +4544,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4502,7 +4555,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4513,7 +4566,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4524,7 +4577,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4535,7 +4588,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -4546,7 +4599,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -4557,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -4568,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4579,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
@@ -4590,7 +4643,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -4601,7 +4654,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -4612,7 +4665,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -4623,7 +4676,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -4634,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -4645,7 +4698,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -4656,7 +4709,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -4667,7 +4720,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -4678,7 +4731,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -4689,7 +4742,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -4700,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -4711,7 +4764,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -4722,7 +4775,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -4733,7 +4786,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -4744,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -4755,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -4766,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
@@ -4777,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
@@ -4788,7 +4841,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>44</v>
       </c>
@@ -4799,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -4810,7 +4863,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -4821,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -4832,7 +4885,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -4843,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
@@ -4854,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
@@ -4865,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
@@ -4876,7 +4929,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -4887,7 +4940,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -4898,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -4913,4 +4966,267 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.296875" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D78BB1D3-1542-4F9E-8980-113F02A46BCD}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{E9FC8682-CE54-42E1-834D-6291AE4AAAE8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{987FEB05-6EB0-4CA7-97B3-DBEACB9BB43E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B5E485A5-4916-4CAB-9190-CD4973C027E5}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{D0F0F597-64BD-4B02-95E1-521CE3BBFC7E}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{90433DC5-63EB-4FB2-97D1-EC866BD87DFF}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{88DAB520-DF94-4067-90B5-1C3D7D2431C1}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{0609A7C3-E808-4622-A354-0DDF1311242C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+</worksheet>
 </file>
--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4AEA66-C5A7-454A-9E1F-32803214928F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E731E8-F911-4D0D-AFE2-F2828822534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="2532" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
+    <workbookView xWindow="8976" yWindow="1956" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
   <sheets>
     <sheet name="연회비" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="73">
   <si>
     <t>카드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,38 @@
   </si>
   <si>
     <t>http://www.card-gorilla.com/card/detail/485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4972,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5058,118 +5090,142 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -5225,8 +5281,16 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{90433DC5-63EB-4FB2-97D1-EC866BD87DFF}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{88DAB520-DF94-4067-90B5-1C3D7D2431C1}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{0609A7C3-E808-4622-A354-0DDF1311242C}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{B8A7211E-9F78-4582-BBD2-98D36449A125}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{3B2AB00B-CEDE-4486-ABFF-CF52C6E2CC39}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{E226C37B-760B-42FD-9523-A3933DE45468}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{D9F086EE-D783-4698-9DF5-D80915A1BBFC}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{BA884A29-2166-4820-84F2-737F305C6DE0}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{C2E6B071-5E4A-45A5-AD37-A9694F1A169F}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{ECC84D81-2AE6-4D8C-90B0-A1CABAD5C572}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{56C6E882-B24C-42C8-ACFE-A22EAD230898}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E731E8-F911-4D0D-AFE2-F2828822534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADAEDA-2ABE-4029-9DE9-B55BC28782F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8976" yWindow="1956" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="81">
   <si>
     <t>카드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,38 @@
   </si>
   <si>
     <t>http://www.card-gorilla.com/card/detail/512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/593</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5004,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5154,40 +5186,64 @@
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B19" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B22" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B23" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -5289,8 +5345,16 @@
     <hyperlink ref="B15" r:id="rId14" xr:uid="{C2E6B071-5E4A-45A5-AD37-A9694F1A169F}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{ECC84D81-2AE6-4D8C-90B0-A1CABAD5C572}"/>
     <hyperlink ref="B17" r:id="rId16" xr:uid="{56C6E882-B24C-42C8-ACFE-A22EAD230898}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{8B6E8617-54CD-4E82-8F1F-E67396E2ADD3}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{230B2A5A-0DD9-4722-A7C3-0023C0B76B69}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{3F4DF01F-91EB-44BD-9139-6C431F69131D}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{DE5C7A24-FCC8-433A-A786-42E14DA2B952}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{E5AFF3CB-F4BE-4FA0-AD3E-0D2A6F8CDE2D}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{21CDE920-64A0-44A0-89AB-142FD655845F}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{41E47812-DD9C-41D1-8CE2-864B025707D7}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{28469DD0-763B-4324-B7A7-84FC31DAB6C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ADAEDA-2ABE-4029-9DE9-B55BC28782F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28B9F9-2AFA-48B2-900F-712F2008C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8976" yWindow="1956" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
   <si>
     <t>카드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,38 @@
   </si>
   <si>
     <t>http://www.card-gorilla.com/card/detail/593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/264</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/418</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5036,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5250,78 +5282,102 @@
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B29" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B30" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -5353,8 +5409,16 @@
     <hyperlink ref="B23" r:id="rId22" xr:uid="{21CDE920-64A0-44A0-89AB-142FD655845F}"/>
     <hyperlink ref="B24" r:id="rId23" xr:uid="{41E47812-DD9C-41D1-8CE2-864B025707D7}"/>
     <hyperlink ref="B25" r:id="rId24" xr:uid="{28469DD0-763B-4324-B7A7-84FC31DAB6C3}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{8A4866A0-C637-438F-B50A-F83C3FF7E99A}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{ED74A9D5-16D9-4686-99E5-0248E610ADAC}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{32DB375B-6A00-4D66-92A0-43E9FBF2698B}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{3E68262E-186B-4F00-9D13-EBECCA624ABE}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{E3C14657-6B9F-4FBD-B982-33DE7DFA69EE}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{8E1F7690-194B-438C-AA6C-CACCC80E4762}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{4E8F34E9-64D8-431B-BDA7-801BCC8F211E}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{F508863E-7140-436E-95A6-2CC93301D86C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\돼지동까스\reporepo\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28B9F9-2AFA-48B2-900F-712F2008C7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B84E612-1748-4DBF-AB53-C426C2503993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="1956" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
+    <workbookView xWindow="4920" yWindow="1068" windowWidth="17424" windowHeight="8964" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
   <sheets>
     <sheet name="연회비" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="97">
   <si>
     <t>카드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,38 @@
   </si>
   <si>
     <t>http://www.card-gorilla.com/card/detail/418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.card-gorilla.com/card/detail/236</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5068,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5346,40 +5378,64 @@
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B34" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B35" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B36" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B37" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B39" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B40" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5417,8 +5473,16 @@
     <hyperlink ref="B31" r:id="rId30" xr:uid="{8E1F7690-194B-438C-AA6C-CACCC80E4762}"/>
     <hyperlink ref="B32" r:id="rId31" xr:uid="{4E8F34E9-64D8-431B-BDA7-801BCC8F211E}"/>
     <hyperlink ref="B33" r:id="rId32" xr:uid="{F508863E-7140-436E-95A6-2CC93301D86C}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{8B4BEBBB-AF0C-4CFD-9B8B-5FE6809E7F65}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{D52BD5C5-F10A-4147-956C-2ED761280AF1}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{0A08481D-390A-479F-A260-066507256D0A}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{235080E2-9936-4EF5-9C31-39048E5AC82A}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{D99D682D-9E4D-474F-A3B1-4ED3CE7851D7}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{7A4D86DB-A28C-4D89-9AE0-1EB20598C0EF}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{0EF8DC72-6DD7-4E95-85AF-B3FEC2AC06C7}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{B09103F9-2A15-4882-A3EA-30BF1DC13387}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/DB/card_data.xlsx
+++ b/DB/card_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\신민경\Desktop\Classom\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2556D56-D009-4CD4-9E00-2439538C8102}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958D7F0-A8C8-458F-AB60-F784E955D7A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="7" xr2:uid="{4A3F0F10-DF19-4EC0-A449-A3C6B1AE4405}"/>
   </bookViews>
   <sheets>
     <sheet name="연회비" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63928CCD-DF40-4A6B-8401-6D70BD420491}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -985,7 +985,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E114BB0-8FD0-4CD2-B2BD-307B71B2DF24}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1370,7 +1370,7 @@
         <v>500000</v>
       </c>
       <c r="D8" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1384,7 +1384,7 @@
         <v>1000000</v>
       </c>
       <c r="D9" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1398,7 +1398,7 @@
         <v>2000000</v>
       </c>
       <c r="D10" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1776,7 +1776,7 @@
         <v>500000</v>
       </c>
       <c r="D8" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1790,7 +1790,7 @@
         <v>1000000</v>
       </c>
       <c r="D9" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
@@ -1804,7 +1804,7 @@
         <v>2000000</v>
       </c>
       <c r="D10" s="7">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3085,7 +3085,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3236,8 +3236,8 @@
       <c r="C10" s="7">
         <v>300000</v>
       </c>
-      <c r="D10" s="4">
-        <v>40</v>
+      <c r="D10" s="7">
+        <v>4000</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
@@ -3366,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB9C2E-F021-4926-A19C-B4FED3C423FD}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
